--- a/src/test/resources/paginations.xlsx
+++ b/src/test/resources/paginations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\hybrid-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5830"/>
   </bookViews>
   <sheets>
     <sheet name="paginations" sheetId="1" r:id="rId1"/>
@@ -379,12 +379,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -408,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -416,7 +416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -432,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -440,9 +440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
